--- a/Question_Set2/Programming skills/Symfony.xlsx
+++ b/Question_Set2/Programming skills/Symfony.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a web developer working on a Symfony project. You need to create a new route for the "About" page of the website.What is the correct way to define a route in the annotations.yaml file?', 'ques_type': 2, 'options': ['about_page:\npath: /about\ncontroller: App\\Controller\\AboutController::index\n', 'about_page:\npath: /about\naction: index\n', 'about_page:\npath: /about\nmethod: GET\ncontroller: App\\Controller\\AboutController::index\n', '/about:\ncontroller: App\\Controller\\AboutController::index\n'], 'score': 'about_page:\npath: /about\ncontroller: App\\Controller\\AboutController::index'}, {'title': "You are a web developer working on a Symfony project that requires you to manually map an entity in your application to a database table using Doctrine. You need to define the entity's properties and the corresponding columns in the table.Which annotation/attribute should you use to define the primary key for the entity?", 'ques_type': 2, 'options': ['@Id OR #[ORM\\Id] #[ORM\\Column]', '@PrimaryKey OR #[ORM\\PrimaryKey] #[ORM\\Column]', '@GeneratedValue OR #[ORM\\GeneratedValue] #[ORM\\Entry]', '@Key OR #[ORM\\Key] #[ORM\\Entry]'], 'score': '@Id OR #[ORM\\Id] #[ORM\\Column]'}, {'title': 'You are a web developer working on a Symfony project. Your task is to manually create a registration form for new users using the form component.Which of the following steps should you take to create and render the form in Symfony?', 'ques_type': 2, 'options': ['Create a form class, instantiate it in the controller, and render it using renderForm() function.', 'Instantiate the form directly in the template using createForm() and render it using form_start() and form_end() in Twig.', 'Create a form class, instantiate it in the template, and render it using form() function in Twig.', 'Create a form class, instantiate it in the controller, and render it in the template using form_start() and form_end() in Twig.'], 'score': 'Create a form class, instantiate it in the controller, and render it in the template using form_start() and form_end() in Twig.'}, {'title': 'You are a developer working on a Symfony project that requires implementing a form using the Form component. Your team leader has asked you to manually create a form type class for handling user registration data.Which of the following methods should be implemented in your form type class to configure the form fields?', 'ques_type': 2, 'options': ['buildForm()', 'add()', 'createFormBuilder()', 'configureOptions()'], 'score': 'buildForm()'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a web developer working on a Symfony project. You need to create a new route for the \"About\" page of the website.What is the correct way to define a route in the annotations.yaml file?",
+        "ques_type": 2,
+        "options": [
+            "about_page:\npath: /about\ncontroller: App\\Controller\\AboutController::index\n",
+            "about_page:\npath: /about\naction: index\n",
+            "about_page:\npath: /about\nmethod: GET\ncontroller: App\\Controller\\AboutController::index\n",
+            "/about:\ncontroller: App\\Controller\\AboutController::index\n"
+        ],
+        "score": "about_page:\npath: /about\ncontroller: App\\Controller\\AboutController::index"
+    },
+    {
+        "title": "You are a web developer working on a Symfony project that requires you to manually map an entity in your application to a database table using Doctrine. You need to define the entity's properties and the corresponding columns in the table.Which annotation/attribute should you use to define the primary key for the entity?",
+        "ques_type": 2,
+        "options": [
+            "@Id OR #[ORM\\Id] #[ORM\\Column]",
+            "@PrimaryKey OR #[ORM\\PrimaryKey] #[ORM\\Column]",
+            "@GeneratedValue OR #[ORM\\GeneratedValue] #[ORM\\Entry]",
+            "@Key OR #[ORM\\Key] #[ORM\\Entry]"
+        ],
+        "score": "@Id OR #[ORM\\Id] #[ORM\\Column]"
+    },
+    {
+        "title": "You are a web developer working on a Symfony project. Your task is to manually create a registration form for new users using the form component.Which of the following steps should you take to create and render the form in Symfony?",
+        "ques_type": 2,
+        "options": [
+            "Create a form class, instantiate it in the controller, and render it using renderForm() function.",
+            "Instantiate the form directly in the template using createForm() and render it using form_start() and form_end() in Twig.",
+            "Create a form class, instantiate it in the template, and render it using form() function in Twig.",
+            "Create a form class, instantiate it in the controller, and render it in the template using form_start() and form_end() in Twig."
+        ],
+        "score": "Create a form class, instantiate it in the controller, and render it in the template using form_start() and form_end() in Twig."
+    },
+    {
+        "title": "You are a developer working on a Symfony project that requires implementing a form using the Form component. Your team leader has asked you to manually create a form type class for handling user registration data.Which of the following methods should be implemented in your form type class to configure the form fields?",
+        "ques_type": 2,
+        "options": [
+            "buildForm()",
+            "add()",
+            "createFormBuilder()",
+            "configureOptions()"
+        ],
+        "score": "buildForm()"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
